--- a/Dados_Categoricos/dados_94_alunos.xlsx
+++ b/Dados_Categoricos/dados_94_alunos.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f51d9b65dbd9674/UFSM/BancoDados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\GitHub\Atividades_aulas\Dados_Categoricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_2E421E2B34463772CFEEA5C7E855A1AA7711204B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7AE6546-17F5-4E2F-B230-89D02CE60765}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A02B809-9DE5-4F7D-939A-F5C467405724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="1365" windowWidth="20460" windowHeight="10770" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="4" r:id="rId1"/>
-    <sheet name="dados" sheetId="1" r:id="rId2"/>
+    <sheet name="dados" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId2"/>
     <sheet name="Tabela dinâmica_dados_1" sheetId="2" r:id="rId3"/>
     <sheet name="Legenda" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">dados!$A$1:$G$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">dados!$A$1:$G$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -415,7 +415,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -471,7 +471,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
@@ -3023,7 +3022,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DBE77D3-B1C8-4C65-8516-01A47F1E4F94}" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DBE77D3-B1C8-4C65-8516-01A47F1E4F94}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -3303,2309 +3302,2309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47955B71-A386-493C-8D45-A616FC735D61}">
-  <dimension ref="A3:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>166</v>
+      </c>
+      <c r="E2" s="4">
+        <v>58</v>
+      </c>
+      <c r="F2" s="4">
+        <v>245</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>169</v>
+      </c>
+      <c r="E3" s="4">
+        <v>61</v>
+      </c>
+      <c r="F3" s="4">
+        <v>237</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>155</v>
+      </c>
+      <c r="E4" s="4">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4">
+        <v>255</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>172</v>
+      </c>
+      <c r="E5" s="4">
+        <v>83</v>
+      </c>
+      <c r="F5" s="4">
+        <v>284</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>162</v>
+      </c>
+      <c r="E6" s="4">
+        <v>62</v>
+      </c>
+      <c r="F6" s="4">
+        <v>310</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>160</v>
+      </c>
+      <c r="E7" s="4">
         <v>48</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="F7" s="4">
+        <v>227</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>182</v>
+      </c>
+      <c r="E8" s="4">
+        <v>67</v>
+      </c>
+      <c r="F8" s="4">
+        <v>262</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>180</v>
+      </c>
+      <c r="E9" s="4">
+        <v>71</v>
+      </c>
+      <c r="F9" s="4">
+        <v>227</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>160</v>
+      </c>
+      <c r="E10" s="4">
+        <v>58</v>
+      </c>
+      <c r="F10" s="4">
+        <v>229</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>183</v>
+      </c>
+      <c r="E11" s="4">
+        <v>92</v>
+      </c>
+      <c r="F11" s="4">
+        <v>655</v>
+      </c>
+      <c r="G11" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>166</v>
+      </c>
+      <c r="E12" s="4">
+        <v>80</v>
+      </c>
+      <c r="F12" s="4">
+        <v>278</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>173</v>
+      </c>
+      <c r="E13" s="4">
+        <v>86</v>
+      </c>
+      <c r="F13" s="4">
+        <v>272</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>183</v>
+      </c>
+      <c r="E14" s="4">
+        <v>65</v>
+      </c>
+      <c r="F14" s="4">
+        <v>216</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>170</v>
+      </c>
+      <c r="E15" s="4">
+        <v>65</v>
+      </c>
+      <c r="F15" s="4">
+        <v>224</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>183</v>
+      </c>
+      <c r="E16" s="4">
+        <v>90</v>
+      </c>
+      <c r="F16" s="4">
+        <v>300</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>169</v>
+      </c>
+      <c r="E17" s="4">
+        <v>64</v>
+      </c>
+      <c r="F17" s="4">
+        <v>226</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>150</v>
+      </c>
+      <c r="E18" s="4">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="F18" s="4">
+        <v>280</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>163</v>
+      </c>
+      <c r="E19" s="4">
+        <v>53.5</v>
+      </c>
+      <c r="F19" s="4">
+        <v>245</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>185</v>
+      </c>
+      <c r="E20" s="4">
+        <v>70</v>
+      </c>
+      <c r="F20" s="4">
+        <v>262</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>165</v>
+      </c>
+      <c r="E21" s="4">
+        <v>74</v>
+      </c>
+      <c r="F21" s="4">
+        <v>360</v>
+      </c>
+      <c r="G21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>173</v>
+      </c>
+      <c r="E22" s="4">
+        <v>112</v>
+      </c>
+      <c r="F22" s="4">
+        <v>248</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>182</v>
+      </c>
+      <c r="E23" s="4">
+        <v>70</v>
+      </c>
+      <c r="F23" s="4">
+        <v>247</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>174</v>
+      </c>
+      <c r="E24" s="4">
+        <v>61.15</v>
+      </c>
+      <c r="F24" s="4">
+        <v>218</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>160</v>
+      </c>
+      <c r="E25" s="4">
+        <v>59</v>
+      </c>
+      <c r="F25" s="4">
+        <v>259</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>181</v>
+      </c>
+      <c r="E26" s="4">
+        <v>73</v>
+      </c>
+      <c r="F26" s="4">
+        <v>230</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>181</v>
+      </c>
+      <c r="E27" s="4">
+        <v>62</v>
+      </c>
+      <c r="F27" s="4">
+        <v>228</v>
+      </c>
+      <c r="G27" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>167</v>
+      </c>
+      <c r="E28" s="4">
+        <v>75</v>
+      </c>
+      <c r="F28" s="4">
+        <v>235</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>164</v>
+      </c>
+      <c r="E29" s="4">
+        <v>74</v>
+      </c>
+      <c r="F29" s="4">
+        <v>241</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>162</v>
+      </c>
+      <c r="E30" s="4">
+        <v>51.95</v>
+      </c>
+      <c r="F30" s="4">
+        <v>259</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>173</v>
+      </c>
+      <c r="E31" s="4">
+        <v>65</v>
+      </c>
+      <c r="F31" s="4">
+        <v>226</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>163</v>
+      </c>
+      <c r="E32" s="4">
+        <v>60</v>
+      </c>
+      <c r="F32" s="4">
+        <v>222</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>160</v>
+      </c>
+      <c r="E33" s="4">
+        <v>64</v>
+      </c>
+      <c r="F33" s="4">
+        <v>220</v>
+      </c>
+      <c r="G33" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>172</v>
+      </c>
+      <c r="E34" s="4">
+        <v>89</v>
+      </c>
+      <c r="F34" s="4">
+        <v>322</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>170</v>
+      </c>
+      <c r="E35" s="4">
+        <v>57</v>
+      </c>
+      <c r="F35" s="4">
+        <v>255</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>174</v>
+      </c>
+      <c r="E36" s="4">
+        <v>76</v>
+      </c>
+      <c r="F36" s="4">
+        <v>225</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>158</v>
+      </c>
+      <c r="E37" s="4">
+        <v>49</v>
+      </c>
+      <c r="F37" s="4">
+        <v>239</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>172</v>
+      </c>
+      <c r="E38" s="4">
+        <v>69</v>
+      </c>
+      <c r="F38" s="4">
+        <v>216</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>168</v>
+      </c>
+      <c r="E39" s="4">
+        <v>78.2</v>
+      </c>
+      <c r="F39" s="4">
+        <v>216</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>157</v>
+      </c>
+      <c r="E40" s="4">
+        <v>52</v>
+      </c>
+      <c r="F40" s="4">
+        <v>244</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>169</v>
+      </c>
+      <c r="E41" s="4">
+        <v>66</v>
+      </c>
+      <c r="F41" s="4">
+        <v>223</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>179</v>
+      </c>
+      <c r="E42" s="4">
+        <v>80</v>
+      </c>
+      <c r="F42" s="4">
+        <v>224</v>
+      </c>
+      <c r="G42" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>158</v>
+      </c>
+      <c r="E43" s="4">
+        <v>54</v>
+      </c>
+      <c r="F43" s="4">
+        <v>218</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>175</v>
+      </c>
+      <c r="E44" s="4">
+        <v>78</v>
+      </c>
+      <c r="F44" s="4">
+        <v>245</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>165</v>
+      </c>
+      <c r="E45" s="4">
+        <v>52</v>
+      </c>
+      <c r="F45" s="4">
+        <v>215</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B4" s="32">
-        <v>0</v>
-      </c>
-      <c r="C4" s="32">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32" t="s">
+      <c r="B46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>163</v>
+      </c>
+      <c r="E46" s="4">
+        <v>56</v>
+      </c>
+      <c r="F46" s="4">
+        <v>238</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="B47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="31">
-        <v>19</v>
-      </c>
-      <c r="C5" s="31">
-        <v>11</v>
-      </c>
-      <c r="D5" s="31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <v>168</v>
+      </c>
+      <c r="E47" s="4">
+        <v>66</v>
+      </c>
+      <c r="F47" s="4">
+        <v>218</v>
+      </c>
+      <c r="G47" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>165</v>
+      </c>
+      <c r="E48" s="4">
+        <v>49</v>
+      </c>
+      <c r="F48" s="4">
+        <v>224</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <v>190</v>
+      </c>
+      <c r="E49" s="4">
+        <v>115</v>
+      </c>
+      <c r="F49" s="4">
+        <v>238</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
+        <v>164</v>
+      </c>
+      <c r="E50" s="4">
+        <v>58</v>
+      </c>
+      <c r="F50" s="4">
+        <v>253</v>
+      </c>
+      <c r="G50" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>174</v>
+      </c>
+      <c r="E51" s="4">
+        <v>70</v>
+      </c>
+      <c r="F51" s="4">
+        <v>233</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="31">
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>170</v>
+      </c>
+      <c r="E52" s="4">
+        <v>63.8</v>
+      </c>
+      <c r="F52" s="4">
+        <v>226</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
+        <v>163</v>
+      </c>
+      <c r="E53" s="4">
+        <v>61.5</v>
+      </c>
+      <c r="F53" s="4">
+        <v>259</v>
+      </c>
+      <c r="G53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="31">
-        <v>25</v>
-      </c>
-      <c r="D6" s="31">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>170</v>
+      </c>
+      <c r="E54" s="4">
+        <v>65</v>
+      </c>
+      <c r="F54" s="4">
+        <v>215</v>
+      </c>
+      <c r="G54" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>172</v>
+      </c>
+      <c r="E55" s="4">
+        <v>55.6</v>
+      </c>
+      <c r="F55" s="4">
+        <v>227</v>
+      </c>
+      <c r="G55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>173</v>
+      </c>
+      <c r="E56" s="4">
+        <v>72</v>
+      </c>
+      <c r="F56" s="4">
+        <v>221</v>
+      </c>
+      <c r="G56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>163</v>
+      </c>
+      <c r="E57" s="4">
+        <v>62</v>
+      </c>
+      <c r="F57" s="4">
+        <v>242</v>
+      </c>
+      <c r="G57" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="31">
-        <v>16</v>
-      </c>
-      <c r="C7" s="31">
-        <v>16</v>
-      </c>
-      <c r="D7" s="31">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="31">
-        <v>42</v>
-      </c>
-      <c r="C8" s="31">
-        <v>52</v>
-      </c>
-      <c r="D8" s="31">
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>173</v>
+      </c>
+      <c r="E58" s="4">
+        <v>70</v>
+      </c>
+      <c r="F58" s="4">
+        <v>240</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>157</v>
+      </c>
+      <c r="E59" s="4">
+        <v>77</v>
+      </c>
+      <c r="F59" s="4">
+        <v>465</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>180</v>
+      </c>
+      <c r="E60" s="4">
+        <v>61</v>
+      </c>
+      <c r="F60" s="4">
+        <v>230</v>
+      </c>
+      <c r="G60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <v>165</v>
+      </c>
+      <c r="E61" s="4">
+        <v>59</v>
+      </c>
+      <c r="F61" s="4">
+        <v>303</v>
+      </c>
+      <c r="G61" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4">
+        <v>165</v>
+      </c>
+      <c r="E62" s="4">
+        <v>65</v>
+      </c>
+      <c r="F62" s="4">
+        <v>190</v>
+      </c>
+      <c r="G62" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4">
+        <v>180</v>
+      </c>
+      <c r="E63" s="4">
+        <v>70</v>
+      </c>
+      <c r="F63" s="4">
+        <v>238</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4">
+        <v>179</v>
+      </c>
+      <c r="E64" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="F64" s="4">
+        <v>255</v>
+      </c>
+      <c r="G64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4">
+        <v>160</v>
+      </c>
+      <c r="E65" s="4">
+        <v>47</v>
+      </c>
+      <c r="F65" s="4">
+        <v>279</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4">
+        <v>150</v>
+      </c>
+      <c r="E66" s="4">
+        <v>48</v>
+      </c>
+      <c r="F66" s="4">
+        <v>255</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4">
+        <v>170</v>
+      </c>
+      <c r="E67" s="4">
+        <v>55</v>
+      </c>
+      <c r="F67" s="4">
+        <v>230</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>176</v>
+      </c>
+      <c r="E68" s="4">
+        <v>77</v>
+      </c>
+      <c r="F68" s="4">
+        <v>252</v>
+      </c>
+      <c r="G68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>163</v>
+      </c>
+      <c r="E69" s="4">
+        <v>90</v>
+      </c>
+      <c r="F69" s="4">
+        <v>221</v>
+      </c>
+      <c r="G69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>177</v>
+      </c>
+      <c r="E70" s="4">
+        <v>84</v>
+      </c>
+      <c r="F70" s="4">
+        <v>221</v>
+      </c>
+      <c r="G70" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>165</v>
+      </c>
+      <c r="E71" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="F71" s="4">
+        <v>225</v>
+      </c>
+      <c r="G71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0</v>
+      </c>
+      <c r="D72" s="4">
+        <v>188</v>
+      </c>
+      <c r="E72" s="4">
+        <v>81</v>
+      </c>
+      <c r="F72" s="4">
+        <v>230</v>
+      </c>
+      <c r="G72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="4">
+        <v>153</v>
+      </c>
+      <c r="E73" s="4">
+        <v>60</v>
+      </c>
+      <c r="F73" s="4">
+        <v>228</v>
+      </c>
+      <c r="G73" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4">
+        <v>175</v>
+      </c>
+      <c r="E74" s="4">
+        <v>65</v>
+      </c>
+      <c r="F74" s="4">
+        <v>221</v>
+      </c>
+      <c r="G74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0</v>
+      </c>
+      <c r="D75" s="4">
+        <v>174</v>
+      </c>
+      <c r="E75" s="4">
+        <v>63</v>
+      </c>
+      <c r="F75" s="4">
+        <v>216</v>
+      </c>
+      <c r="G75" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4">
+        <v>162</v>
+      </c>
+      <c r="E76" s="4">
+        <v>52.8</v>
+      </c>
+      <c r="F76" s="4">
+        <v>224</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4">
+        <v>172</v>
+      </c>
+      <c r="E77" s="4">
+        <v>76</v>
+      </c>
+      <c r="F77" s="4">
+        <v>231</v>
+      </c>
+      <c r="G77" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4">
+        <v>160</v>
+      </c>
+      <c r="E78" s="4">
+        <v>62</v>
+      </c>
+      <c r="F78" s="4">
+        <v>242</v>
+      </c>
+      <c r="G78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4">
+        <v>176</v>
+      </c>
+      <c r="E79" s="4">
+        <v>80</v>
+      </c>
+      <c r="F79" s="4">
+        <v>269</v>
+      </c>
+      <c r="G79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4">
+        <v>154</v>
+      </c>
+      <c r="E80" s="4">
+        <v>50</v>
+      </c>
+      <c r="F80" s="4">
+        <v>255</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="4">
+        <v>175</v>
+      </c>
+      <c r="E81" s="4">
+        <v>61</v>
+      </c>
+      <c r="F81" s="4">
+        <v>251</v>
+      </c>
+      <c r="G81" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
+      <c r="D82" s="4">
+        <v>160</v>
+      </c>
+      <c r="E82" s="4">
+        <v>55</v>
+      </c>
+      <c r="F82" s="4">
+        <v>245</v>
+      </c>
+      <c r="G82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4">
+        <v>183</v>
+      </c>
+      <c r="E83" s="4">
+        <v>80</v>
+      </c>
+      <c r="F83" s="4">
+        <v>225</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4">
+        <v>168</v>
+      </c>
+      <c r="E84" s="4">
+        <v>55</v>
+      </c>
+      <c r="F84" s="4">
+        <v>221</v>
+      </c>
+      <c r="G84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0</v>
+      </c>
+      <c r="D85" s="4">
+        <v>193</v>
+      </c>
+      <c r="E85" s="4">
+        <v>90</v>
+      </c>
+      <c r="F85" s="4">
+        <v>251</v>
+      </c>
+      <c r="G85" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0</v>
+      </c>
+      <c r="D86" s="4">
+        <v>183</v>
+      </c>
+      <c r="E86" s="4">
+        <v>78</v>
+      </c>
+      <c r="F86" s="4">
+        <v>245</v>
+      </c>
+      <c r="G86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="D87" s="4">
+        <v>157</v>
+      </c>
+      <c r="E87" s="4">
+        <v>45</v>
+      </c>
+      <c r="F87" s="4">
+        <v>258</v>
+      </c>
+      <c r="G87" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="5">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4">
+        <v>167</v>
+      </c>
+      <c r="E88" s="4">
+        <v>62</v>
+      </c>
+      <c r="F88" s="4">
+        <v>276</v>
+      </c>
+      <c r="G88" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0</v>
+      </c>
+      <c r="D89" s="4">
+        <v>175</v>
+      </c>
+      <c r="E89" s="4">
+        <v>83</v>
+      </c>
+      <c r="F89" s="4">
+        <v>222</v>
+      </c>
+      <c r="G89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
+      <c r="D90" s="4">
+        <v>162</v>
+      </c>
+      <c r="E90" s="4">
+        <v>90</v>
+      </c>
+      <c r="F90" s="4">
+        <v>254</v>
+      </c>
+      <c r="G90" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="5">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4">
+        <v>155</v>
+      </c>
+      <c r="E91" s="4">
+        <v>54.8</v>
+      </c>
+      <c r="F91" s="4">
+        <v>255</v>
+      </c>
+      <c r="G91" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="5">
+        <v>1</v>
+      </c>
+      <c r="D92" s="4">
+        <v>162</v>
+      </c>
+      <c r="E92" s="4">
+        <v>53.5</v>
+      </c>
+      <c r="F92" s="4">
+        <v>238</v>
+      </c>
+      <c r="G92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4">
+        <v>163</v>
+      </c>
+      <c r="E93" s="4">
+        <v>57</v>
+      </c>
+      <c r="F93" s="4">
+        <v>252</v>
+      </c>
+      <c r="G93" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0</v>
+      </c>
+      <c r="D94" s="4">
+        <v>178</v>
+      </c>
+      <c r="E94" s="4">
+        <v>73</v>
+      </c>
+      <c r="F94" s="4">
+        <v>214</v>
+      </c>
+      <c r="G94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+      <c r="D95" s="4">
+        <v>164</v>
+      </c>
+      <c r="E95" s="4">
+        <v>56.8</v>
+      </c>
+      <c r="F95" s="4">
+        <v>242</v>
+      </c>
+      <c r="G95" s="5">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47955B71-A386-493C-8D45-A616FC735D61}">
+  <dimension ref="A3:D8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="31">
+        <v>0</v>
+      </c>
+      <c r="C4" s="31">
+        <v>1</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>166</v>
-      </c>
-      <c r="E2" s="4">
-        <v>58</v>
-      </c>
-      <c r="F2" s="4">
-        <v>245</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>169</v>
-      </c>
-      <c r="E3" s="4">
-        <v>61</v>
-      </c>
-      <c r="F3" s="4">
-        <v>237</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>155</v>
-      </c>
-      <c r="E4" s="4">
-        <v>60</v>
-      </c>
-      <c r="F4" s="4">
-        <v>255</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>172</v>
-      </c>
-      <c r="E5" s="4">
-        <v>83</v>
-      </c>
-      <c r="F5" s="4">
-        <v>284</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>162</v>
-      </c>
-      <c r="E6" s="4">
-        <v>62</v>
-      </c>
-      <c r="F6" s="4">
-        <v>310</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>160</v>
-      </c>
-      <c r="E7" s="4">
-        <v>48</v>
-      </c>
-      <c r="F7" s="4">
-        <v>227</v>
-      </c>
-      <c r="G7" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>182</v>
-      </c>
-      <c r="E8" s="4">
-        <v>67</v>
-      </c>
-      <c r="F8" s="4">
-        <v>262</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>180</v>
-      </c>
-      <c r="E9" s="4">
-        <v>71</v>
-      </c>
-      <c r="F9" s="4">
-        <v>227</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>160</v>
-      </c>
-      <c r="E10" s="4">
-        <v>58</v>
-      </c>
-      <c r="F10" s="4">
-        <v>229</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>183</v>
-      </c>
-      <c r="E11" s="4">
-        <v>92</v>
-      </c>
-      <c r="F11" s="4">
-        <v>655</v>
-      </c>
-      <c r="G11" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>166</v>
-      </c>
-      <c r="E12" s="4">
-        <v>80</v>
-      </c>
-      <c r="F12" s="4">
-        <v>278</v>
-      </c>
-      <c r="G12" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>173</v>
-      </c>
-      <c r="E13" s="4">
-        <v>86</v>
-      </c>
-      <c r="F13" s="4">
-        <v>272</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>183</v>
-      </c>
-      <c r="E14" s="4">
-        <v>65</v>
-      </c>
-      <c r="F14" s="4">
-        <v>216</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>170</v>
-      </c>
-      <c r="E15" s="4">
-        <v>65</v>
-      </c>
-      <c r="F15" s="4">
-        <v>224</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>183</v>
-      </c>
-      <c r="E16" s="4">
-        <v>90</v>
-      </c>
-      <c r="F16" s="4">
-        <v>300</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="B7">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>169</v>
-      </c>
-      <c r="E17" s="4">
-        <v>64</v>
-      </c>
-      <c r="F17" s="4">
-        <v>226</v>
-      </c>
-      <c r="G17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>150</v>
-      </c>
-      <c r="E18" s="4">
-        <v>47</v>
-      </c>
-      <c r="F18" s="4">
-        <v>280</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>163</v>
-      </c>
-      <c r="E19" s="4">
-        <v>53.5</v>
-      </c>
-      <c r="F19" s="4">
-        <v>245</v>
-      </c>
-      <c r="G19" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>185</v>
-      </c>
-      <c r="E20" s="4">
-        <v>70</v>
-      </c>
-      <c r="F20" s="4">
-        <v>262</v>
-      </c>
-      <c r="G20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>165</v>
-      </c>
-      <c r="E21" s="4">
-        <v>74</v>
-      </c>
-      <c r="F21" s="4">
-        <v>360</v>
-      </c>
-      <c r="G21" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>173</v>
-      </c>
-      <c r="E22" s="4">
-        <v>112</v>
-      </c>
-      <c r="F22" s="4">
-        <v>248</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>182</v>
-      </c>
-      <c r="E23" s="4">
-        <v>70</v>
-      </c>
-      <c r="F23" s="4">
-        <v>247</v>
-      </c>
-      <c r="G23" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>174</v>
-      </c>
-      <c r="E24" s="4">
-        <v>61.15</v>
-      </c>
-      <c r="F24" s="4">
-        <v>218</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4">
-        <v>160</v>
-      </c>
-      <c r="E25" s="4">
-        <v>59</v>
-      </c>
-      <c r="F25" s="4">
-        <v>259</v>
-      </c>
-      <c r="G25" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>181</v>
-      </c>
-      <c r="E26" s="4">
-        <v>73</v>
-      </c>
-      <c r="F26" s="4">
-        <v>230</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>181</v>
-      </c>
-      <c r="E27" s="4">
-        <v>62</v>
-      </c>
-      <c r="F27" s="4">
-        <v>228</v>
-      </c>
-      <c r="G27" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4">
-        <v>167</v>
-      </c>
-      <c r="E28" s="4">
-        <v>75</v>
-      </c>
-      <c r="F28" s="4">
-        <v>235</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>164</v>
-      </c>
-      <c r="E29" s="4">
-        <v>74</v>
-      </c>
-      <c r="F29" s="4">
-        <v>241</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4">
-        <v>162</v>
-      </c>
-      <c r="E30" s="4">
-        <v>51.95</v>
-      </c>
-      <c r="F30" s="4">
-        <v>259</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>173</v>
-      </c>
-      <c r="E31" s="4">
-        <v>65</v>
-      </c>
-      <c r="F31" s="4">
-        <v>226</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4">
-        <v>163</v>
-      </c>
-      <c r="E32" s="4">
-        <v>60</v>
-      </c>
-      <c r="F32" s="4">
-        <v>222</v>
-      </c>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4">
-        <v>160</v>
-      </c>
-      <c r="E33" s="4">
-        <v>64</v>
-      </c>
-      <c r="F33" s="4">
-        <v>220</v>
-      </c>
-      <c r="G33" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4">
-        <v>172</v>
-      </c>
-      <c r="E34" s="4">
-        <v>89</v>
-      </c>
-      <c r="F34" s="4">
-        <v>322</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4">
-        <v>170</v>
-      </c>
-      <c r="E35" s="4">
-        <v>57</v>
-      </c>
-      <c r="F35" s="4">
-        <v>255</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="5">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4">
-        <v>174</v>
-      </c>
-      <c r="E36" s="4">
-        <v>76</v>
-      </c>
-      <c r="F36" s="4">
-        <v>225</v>
-      </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
-      <c r="D37" s="4">
-        <v>158</v>
-      </c>
-      <c r="E37" s="4">
-        <v>49</v>
-      </c>
-      <c r="F37" s="4">
-        <v>239</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4">
-        <v>172</v>
-      </c>
-      <c r="E38" s="4">
-        <v>69</v>
-      </c>
-      <c r="F38" s="4">
-        <v>216</v>
-      </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4">
-        <v>168</v>
-      </c>
-      <c r="E39" s="4">
-        <v>78.2</v>
-      </c>
-      <c r="F39" s="4">
-        <v>216</v>
-      </c>
-      <c r="G39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="5">
-        <v>1</v>
-      </c>
-      <c r="D40" s="4">
-        <v>157</v>
-      </c>
-      <c r="E40" s="4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>42</v>
+      </c>
+      <c r="C8">
         <v>52</v>
       </c>
-      <c r="F40" s="4">
-        <v>244</v>
-      </c>
-      <c r="G40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="5">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4">
-        <v>169</v>
-      </c>
-      <c r="E41" s="4">
-        <v>66</v>
-      </c>
-      <c r="F41" s="4">
-        <v>223</v>
-      </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="5">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4">
-        <v>179</v>
-      </c>
-      <c r="E42" s="4">
-        <v>80</v>
-      </c>
-      <c r="F42" s="4">
-        <v>224</v>
-      </c>
-      <c r="G42" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4">
-        <v>158</v>
-      </c>
-      <c r="E43" s="4">
-        <v>54</v>
-      </c>
-      <c r="F43" s="4">
-        <v>218</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="5">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4">
-        <v>175</v>
-      </c>
-      <c r="E44" s="4">
-        <v>78</v>
-      </c>
-      <c r="F44" s="4">
-        <v>245</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-      <c r="D45" s="4">
-        <v>165</v>
-      </c>
-      <c r="E45" s="4">
-        <v>52</v>
-      </c>
-      <c r="F45" s="4">
-        <v>215</v>
-      </c>
-      <c r="G45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4">
-        <v>163</v>
-      </c>
-      <c r="E46" s="4">
-        <v>56</v>
-      </c>
-      <c r="F46" s="4">
-        <v>238</v>
-      </c>
-      <c r="G46" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="5">
-        <v>1</v>
-      </c>
-      <c r="D47" s="4">
-        <v>168</v>
-      </c>
-      <c r="E47" s="4">
-        <v>66</v>
-      </c>
-      <c r="F47" s="4">
-        <v>218</v>
-      </c>
-      <c r="G47" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="5">
-        <v>1</v>
-      </c>
-      <c r="D48" s="4">
-        <v>165</v>
-      </c>
-      <c r="E48" s="4">
-        <v>49</v>
-      </c>
-      <c r="F48" s="4">
-        <v>224</v>
-      </c>
-      <c r="G48" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="5">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4">
-        <v>190</v>
-      </c>
-      <c r="E49" s="4">
-        <v>115</v>
-      </c>
-      <c r="F49" s="4">
-        <v>238</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="5">
-        <v>1</v>
-      </c>
-      <c r="D50" s="4">
-        <v>164</v>
-      </c>
-      <c r="E50" s="4">
-        <v>58</v>
-      </c>
-      <c r="F50" s="4">
-        <v>253</v>
-      </c>
-      <c r="G50" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="5">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4">
-        <v>174</v>
-      </c>
-      <c r="E51" s="4">
-        <v>70</v>
-      </c>
-      <c r="F51" s="4">
-        <v>233</v>
-      </c>
-      <c r="G51" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="5">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4">
-        <v>170</v>
-      </c>
-      <c r="E52" s="4">
-        <v>63.8</v>
-      </c>
-      <c r="F52" s="4">
-        <v>226</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="5">
-        <v>1</v>
-      </c>
-      <c r="D53" s="4">
-        <v>163</v>
-      </c>
-      <c r="E53" s="4">
-        <v>61.5</v>
-      </c>
-      <c r="F53" s="4">
-        <v>259</v>
-      </c>
-      <c r="G53" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="5">
-        <v>0</v>
-      </c>
-      <c r="D54" s="4">
-        <v>170</v>
-      </c>
-      <c r="E54" s="4">
-        <v>65</v>
-      </c>
-      <c r="F54" s="4">
-        <v>215</v>
-      </c>
-      <c r="G54" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="5">
-        <v>1</v>
-      </c>
-      <c r="D55" s="4">
-        <v>172</v>
-      </c>
-      <c r="E55" s="4">
-        <v>55.6</v>
-      </c>
-      <c r="F55" s="4">
-        <v>227</v>
-      </c>
-      <c r="G55" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="5">
-        <v>0</v>
-      </c>
-      <c r="D56" s="4">
-        <v>173</v>
-      </c>
-      <c r="E56" s="4">
-        <v>72</v>
-      </c>
-      <c r="F56" s="4">
-        <v>221</v>
-      </c>
-      <c r="G56" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="D57" s="4">
-        <v>163</v>
-      </c>
-      <c r="E57" s="4">
-        <v>62</v>
-      </c>
-      <c r="F57" s="4">
-        <v>242</v>
-      </c>
-      <c r="G57" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="5">
-        <v>0</v>
-      </c>
-      <c r="D58" s="4">
-        <v>173</v>
-      </c>
-      <c r="E58" s="4">
-        <v>70</v>
-      </c>
-      <c r="F58" s="4">
-        <v>240</v>
-      </c>
-      <c r="G58" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="5">
-        <v>1</v>
-      </c>
-      <c r="D59" s="4">
-        <v>157</v>
-      </c>
-      <c r="E59" s="4">
-        <v>77</v>
-      </c>
-      <c r="F59" s="4">
-        <v>465</v>
-      </c>
-      <c r="G59" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="5">
-        <v>0</v>
-      </c>
-      <c r="D60" s="4">
-        <v>180</v>
-      </c>
-      <c r="E60" s="4">
-        <v>61</v>
-      </c>
-      <c r="F60" s="4">
-        <v>230</v>
-      </c>
-      <c r="G60" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="5">
-        <v>1</v>
-      </c>
-      <c r="D61" s="4">
-        <v>165</v>
-      </c>
-      <c r="E61" s="4">
-        <v>59</v>
-      </c>
-      <c r="F61" s="4">
-        <v>303</v>
-      </c>
-      <c r="G61" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="5">
-        <v>1</v>
-      </c>
-      <c r="D62" s="4">
-        <v>165</v>
-      </c>
-      <c r="E62" s="4">
-        <v>65</v>
-      </c>
-      <c r="F62" s="4">
-        <v>190</v>
-      </c>
-      <c r="G62" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="5">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4">
-        <v>180</v>
-      </c>
-      <c r="E63" s="4">
-        <v>70</v>
-      </c>
-      <c r="F63" s="4">
-        <v>238</v>
-      </c>
-      <c r="G63" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="5">
-        <v>0</v>
-      </c>
-      <c r="D64" s="4">
-        <v>179</v>
-      </c>
-      <c r="E64" s="4">
-        <v>67.5</v>
-      </c>
-      <c r="F64" s="4">
-        <v>255</v>
-      </c>
-      <c r="G64" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="5">
-        <v>1</v>
-      </c>
-      <c r="D65" s="4">
-        <v>160</v>
-      </c>
-      <c r="E65" s="4">
-        <v>47</v>
-      </c>
-      <c r="F65" s="4">
-        <v>279</v>
-      </c>
-      <c r="G65" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="5">
-        <v>1</v>
-      </c>
-      <c r="D66" s="4">
-        <v>150</v>
-      </c>
-      <c r="E66" s="4">
-        <v>48</v>
-      </c>
-      <c r="F66" s="4">
-        <v>255</v>
-      </c>
-      <c r="G66" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="5">
-        <v>1</v>
-      </c>
-      <c r="D67" s="4">
-        <v>170</v>
-      </c>
-      <c r="E67" s="4">
-        <v>55</v>
-      </c>
-      <c r="F67" s="4">
-        <v>230</v>
-      </c>
-      <c r="G67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="5">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4">
-        <v>176</v>
-      </c>
-      <c r="E68" s="4">
-        <v>77</v>
-      </c>
-      <c r="F68" s="4">
-        <v>252</v>
-      </c>
-      <c r="G68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="5">
-        <v>0</v>
-      </c>
-      <c r="D69" s="4">
-        <v>163</v>
-      </c>
-      <c r="E69" s="4">
-        <v>90</v>
-      </c>
-      <c r="F69" s="4">
-        <v>221</v>
-      </c>
-      <c r="G69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="5">
-        <v>0</v>
-      </c>
-      <c r="D70" s="4">
-        <v>177</v>
-      </c>
-      <c r="E70" s="4">
-        <v>84</v>
-      </c>
-      <c r="F70" s="4">
-        <v>221</v>
-      </c>
-      <c r="G70" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="5">
-        <v>1</v>
-      </c>
-      <c r="D71" s="4">
-        <v>165</v>
-      </c>
-      <c r="E71" s="4">
-        <v>88.4</v>
-      </c>
-      <c r="F71" s="4">
-        <v>225</v>
-      </c>
-      <c r="G71" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="5">
-        <v>0</v>
-      </c>
-      <c r="D72" s="4">
-        <v>188</v>
-      </c>
-      <c r="E72" s="4">
-        <v>81</v>
-      </c>
-      <c r="F72" s="4">
-        <v>230</v>
-      </c>
-      <c r="G72" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="5">
-        <v>1</v>
-      </c>
-      <c r="D73" s="4">
-        <v>153</v>
-      </c>
-      <c r="E73" s="4">
-        <v>60</v>
-      </c>
-      <c r="F73" s="4">
-        <v>228</v>
-      </c>
-      <c r="G73" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="5">
-        <v>0</v>
-      </c>
-      <c r="D74" s="4">
-        <v>175</v>
-      </c>
-      <c r="E74" s="4">
-        <v>65</v>
-      </c>
-      <c r="F74" s="4">
-        <v>221</v>
-      </c>
-      <c r="G74" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="5">
-        <v>0</v>
-      </c>
-      <c r="D75" s="4">
-        <v>174</v>
-      </c>
-      <c r="E75" s="4">
-        <v>63</v>
-      </c>
-      <c r="F75" s="4">
-        <v>216</v>
-      </c>
-      <c r="G75" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="5">
-        <v>1</v>
-      </c>
-      <c r="D76" s="4">
-        <v>162</v>
-      </c>
-      <c r="E76" s="4">
-        <v>52.8</v>
-      </c>
-      <c r="F76" s="4">
-        <v>224</v>
-      </c>
-      <c r="G76" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="5">
-        <v>0</v>
-      </c>
-      <c r="D77" s="4">
-        <v>172</v>
-      </c>
-      <c r="E77" s="4">
-        <v>76</v>
-      </c>
-      <c r="F77" s="4">
-        <v>231</v>
-      </c>
-      <c r="G77" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="5">
-        <v>1</v>
-      </c>
-      <c r="D78" s="4">
-        <v>160</v>
-      </c>
-      <c r="E78" s="4">
-        <v>62</v>
-      </c>
-      <c r="F78" s="4">
-        <v>242</v>
-      </c>
-      <c r="G78" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="5">
-        <v>0</v>
-      </c>
-      <c r="D79" s="4">
-        <v>176</v>
-      </c>
-      <c r="E79" s="4">
-        <v>80</v>
-      </c>
-      <c r="F79" s="4">
-        <v>269</v>
-      </c>
-      <c r="G79" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="5">
-        <v>1</v>
-      </c>
-      <c r="D80" s="4">
-        <v>154</v>
-      </c>
-      <c r="E80" s="4">
-        <v>50</v>
-      </c>
-      <c r="F80" s="4">
-        <v>255</v>
-      </c>
-      <c r="G80" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="5">
-        <v>1</v>
-      </c>
-      <c r="D81" s="4">
-        <v>175</v>
-      </c>
-      <c r="E81" s="4">
-        <v>61</v>
-      </c>
-      <c r="F81" s="4">
-        <v>251</v>
-      </c>
-      <c r="G81" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="5">
-        <v>1</v>
-      </c>
-      <c r="D82" s="4">
-        <v>160</v>
-      </c>
-      <c r="E82" s="4">
-        <v>55</v>
-      </c>
-      <c r="F82" s="4">
-        <v>245</v>
-      </c>
-      <c r="G82" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="5">
-        <v>0</v>
-      </c>
-      <c r="D83" s="4">
-        <v>183</v>
-      </c>
-      <c r="E83" s="4">
-        <v>80</v>
-      </c>
-      <c r="F83" s="4">
-        <v>225</v>
-      </c>
-      <c r="G83" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="5">
-        <v>1</v>
-      </c>
-      <c r="D84" s="4">
-        <v>168</v>
-      </c>
-      <c r="E84" s="4">
-        <v>55</v>
-      </c>
-      <c r="F84" s="4">
-        <v>221</v>
-      </c>
-      <c r="G84" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="5">
-        <v>0</v>
-      </c>
-      <c r="D85" s="4">
-        <v>193</v>
-      </c>
-      <c r="E85" s="4">
-        <v>90</v>
-      </c>
-      <c r="F85" s="4">
-        <v>251</v>
-      </c>
-      <c r="G85" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="5">
-        <v>0</v>
-      </c>
-      <c r="D86" s="4">
-        <v>183</v>
-      </c>
-      <c r="E86" s="4">
-        <v>78</v>
-      </c>
-      <c r="F86" s="4">
-        <v>245</v>
-      </c>
-      <c r="G86" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="5">
-        <v>1</v>
-      </c>
-      <c r="D87" s="4">
-        <v>157</v>
-      </c>
-      <c r="E87" s="4">
-        <v>45</v>
-      </c>
-      <c r="F87" s="4">
-        <v>258</v>
-      </c>
-      <c r="G87" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="5">
-        <v>1</v>
-      </c>
-      <c r="D88" s="4">
-        <v>167</v>
-      </c>
-      <c r="E88" s="4">
-        <v>62</v>
-      </c>
-      <c r="F88" s="4">
-        <v>276</v>
-      </c>
-      <c r="G88" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="5">
-        <v>0</v>
-      </c>
-      <c r="D89" s="4">
-        <v>175</v>
-      </c>
-      <c r="E89" s="4">
-        <v>83</v>
-      </c>
-      <c r="F89" s="4">
-        <v>222</v>
-      </c>
-      <c r="G89" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="5">
-        <v>1</v>
-      </c>
-      <c r="D90" s="4">
-        <v>162</v>
-      </c>
-      <c r="E90" s="4">
-        <v>90</v>
-      </c>
-      <c r="F90" s="4">
-        <v>254</v>
-      </c>
-      <c r="G90" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="5">
-        <v>1</v>
-      </c>
-      <c r="D91" s="4">
-        <v>155</v>
-      </c>
-      <c r="E91" s="4">
-        <v>54.8</v>
-      </c>
-      <c r="F91" s="4">
-        <v>255</v>
-      </c>
-      <c r="G91" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="5">
-        <v>1</v>
-      </c>
-      <c r="D92" s="4">
-        <v>162</v>
-      </c>
-      <c r="E92" s="4">
-        <v>53.5</v>
-      </c>
-      <c r="F92" s="4">
-        <v>238</v>
-      </c>
-      <c r="G92" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="5">
-        <v>1</v>
-      </c>
-      <c r="D93" s="4">
-        <v>163</v>
-      </c>
-      <c r="E93" s="4">
-        <v>57</v>
-      </c>
-      <c r="F93" s="4">
-        <v>252</v>
-      </c>
-      <c r="G93" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="5">
-        <v>0</v>
-      </c>
-      <c r="D94" s="4">
-        <v>178</v>
-      </c>
-      <c r="E94" s="4">
-        <v>73</v>
-      </c>
-      <c r="F94" s="4">
-        <v>214</v>
-      </c>
-      <c r="G94" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="D8">
         <v>94</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="5">
-        <v>1</v>
-      </c>
-      <c r="D95" s="4">
-        <v>164</v>
-      </c>
-      <c r="E95" s="4">
-        <v>56.8</v>
-      </c>
-      <c r="F95" s="4">
-        <v>242</v>
-      </c>
-      <c r="G95" s="5">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -5617,13 +5616,13 @@
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="11" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -5640,7 +5639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -5659,7 +5658,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -5687,7 +5686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>0.31914893617021278</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -5734,7 +5733,7 @@
         <v>0.34042553191489361</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>0.34042553191489361</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -5770,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>8</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
@@ -5786,7 +5785,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -5797,7 +5796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>0</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>0.15957446808510639</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>1</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>0.55319148936170215</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>2</v>
       </c>
@@ -5833,7 +5832,7 @@
         <v>0.1702127659574468</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>3</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>8.5106382978723402E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>4</v>
       </c>
@@ -5857,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>5</v>
       </c>
@@ -5869,7 +5868,7 @@
         <v>1.0638297872340425E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>6</v>
       </c>
@@ -5881,7 +5880,7 @@
         <v>1.0638297872340425E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>7</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>8</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>1.0638297872340425E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>17</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>18</v>
       </c>
@@ -5934,7 +5933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -5955,7 +5954,7 @@
         <v>1.3510638297872339</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -5976,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -5997,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -6018,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -6039,7 +6038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>1.2331221569440982</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -6102,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -6123,7 +6122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>18</v>
       </c>
@@ -6158,7 +6157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>19</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>20</v>
       </c>
@@ -6248,7 +6247,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>21</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>22</v>
       </c>
@@ -6338,7 +6337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H46" s="24"/>
     </row>
   </sheetData>
@@ -6360,13 +6359,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6374,7 +6373,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -6426,7 +6425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
